--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Il16-Kcnj15.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Il16-Kcnj15.xlsx
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>3.45580320324174</v>
+        <v>3.473752</v>
       </c>
       <c r="H2">
-        <v>3.45580320324174</v>
+        <v>10.421256</v>
       </c>
       <c r="I2">
-        <v>0.3014586858926238</v>
+        <v>0.2912886159317403</v>
       </c>
       <c r="J2">
-        <v>0.3014586858926238</v>
+        <v>0.2912886159317402</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.23308317555986</v>
+        <v>2.378907333333333</v>
       </c>
       <c r="N2">
-        <v>2.23308317555986</v>
+        <v>7.136722</v>
       </c>
       <c r="O2">
-        <v>0.311672389722195</v>
+        <v>0.3199597759432165</v>
       </c>
       <c r="P2">
-        <v>0.311672389722195</v>
+        <v>0.3199597759432165</v>
       </c>
       <c r="Q2">
-        <v>7.717095991205001</v>
+        <v>8.263734106981332</v>
       </c>
       <c r="R2">
-        <v>7.717095991205001</v>
+        <v>74.373606962832</v>
       </c>
       <c r="S2">
-        <v>0.09395634903466663</v>
+        <v>0.09320064028832925</v>
       </c>
       <c r="T2">
-        <v>0.09395634903466663</v>
+        <v>0.09320064028832922</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>3.45580320324174</v>
+        <v>3.473752</v>
       </c>
       <c r="H3">
-        <v>3.45580320324174</v>
+        <v>10.421256</v>
       </c>
       <c r="I3">
-        <v>0.3014586858926238</v>
+        <v>0.2912886159317403</v>
       </c>
       <c r="J3">
-        <v>0.3014586858926238</v>
+        <v>0.2912886159317402</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>4.93175801409537</v>
+        <v>5.056112666666666</v>
       </c>
       <c r="N3">
-        <v>4.93175801409537</v>
+        <v>15.168338</v>
       </c>
       <c r="O3">
-        <v>0.688327610277805</v>
+        <v>0.6800402240567835</v>
       </c>
       <c r="P3">
-        <v>0.688327610277805</v>
+        <v>0.6800402240567835</v>
       </c>
       <c r="Q3">
-        <v>17.0431851427239</v>
+        <v>17.56368148805867</v>
       </c>
       <c r="R3">
-        <v>17.0431851427239</v>
+        <v>158.073133392528</v>
       </c>
       <c r="S3">
-        <v>0.2075023368579572</v>
+        <v>0.198087975643411</v>
       </c>
       <c r="T3">
-        <v>0.2075023368579572</v>
+        <v>0.198087975643411</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>20</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.99529315521051</v>
+        <v>3.016808666666666</v>
       </c>
       <c r="H4">
-        <v>2.99529315521051</v>
+        <v>9.050426</v>
       </c>
       <c r="I4">
-        <v>0.261287198757703</v>
+        <v>0.2529720086650434</v>
       </c>
       <c r="J4">
-        <v>0.261287198757703</v>
+        <v>0.2529720086650434</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.23308317555986</v>
+        <v>2.378907333333333</v>
       </c>
       <c r="N4">
-        <v>2.23308317555986</v>
+        <v>7.136722</v>
       </c>
       <c r="O4">
-        <v>0.311672389722195</v>
+        <v>0.3199597759432165</v>
       </c>
       <c r="P4">
-        <v>0.311672389722195</v>
+        <v>0.3199597759432165</v>
       </c>
       <c r="Q4">
-        <v>6.688738750770199</v>
+        <v>7.176708260396889</v>
       </c>
       <c r="R4">
-        <v>6.688738750770199</v>
+        <v>64.59037434357199</v>
       </c>
       <c r="S4">
-        <v>0.08143600564063144</v>
+        <v>0.0809408672123727</v>
       </c>
       <c r="T4">
-        <v>0.08143600564063144</v>
+        <v>0.0809408672123727</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +720,52 @@
         <v>21</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.99529315521051</v>
+        <v>3.016808666666666</v>
       </c>
       <c r="H5">
-        <v>2.99529315521051</v>
+        <v>9.050426</v>
       </c>
       <c r="I5">
-        <v>0.261287198757703</v>
+        <v>0.2529720086650434</v>
       </c>
       <c r="J5">
-        <v>0.261287198757703</v>
+        <v>0.2529720086650434</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4.93175801409537</v>
+        <v>5.056112666666666</v>
       </c>
       <c r="N5">
-        <v>4.93175801409537</v>
+        <v>15.168338</v>
       </c>
       <c r="O5">
-        <v>0.688327610277805</v>
+        <v>0.6800402240567835</v>
       </c>
       <c r="P5">
-        <v>0.688327610277805</v>
+        <v>0.6800402240567835</v>
       </c>
       <c r="Q5">
-        <v>14.77206102277444</v>
+        <v>15.25332451244311</v>
       </c>
       <c r="R5">
-        <v>14.77206102277444</v>
+        <v>137.279920611988</v>
       </c>
       <c r="S5">
-        <v>0.1798511931170716</v>
+        <v>0.1720311414526707</v>
       </c>
       <c r="T5">
-        <v>0.1798511931170716</v>
+        <v>0.1720311414526707</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.6308033199393</v>
+        <v>1.631845666666667</v>
       </c>
       <c r="H6">
-        <v>1.6308033199393</v>
+        <v>4.895537</v>
       </c>
       <c r="I6">
-        <v>0.1422592077341274</v>
+        <v>0.136837075777874</v>
       </c>
       <c r="J6">
-        <v>0.1422592077341274</v>
+        <v>0.136837075777874</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.23308317555986</v>
+        <v>2.378907333333333</v>
       </c>
       <c r="N6">
-        <v>2.23308317555986</v>
+        <v>7.136722</v>
       </c>
       <c r="O6">
-        <v>0.311672389722195</v>
+        <v>0.3199597759432165</v>
       </c>
       <c r="P6">
-        <v>0.311672389722195</v>
+        <v>0.3199597759432165</v>
       </c>
       <c r="Q6">
-        <v>3.641719456403615</v>
+        <v>3.882009623301556</v>
       </c>
       <c r="R6">
-        <v>3.641719456403615</v>
+        <v>34.938086609714</v>
       </c>
       <c r="S6">
-        <v>0.04433826723448166</v>
+        <v>0.0437823601066135</v>
       </c>
       <c r="T6">
-        <v>0.04433826723448166</v>
+        <v>0.0437823601066135</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,52 +844,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.6308033199393</v>
+        <v>1.631845666666667</v>
       </c>
       <c r="H7">
-        <v>1.6308033199393</v>
+        <v>4.895537</v>
       </c>
       <c r="I7">
-        <v>0.1422592077341274</v>
+        <v>0.136837075777874</v>
       </c>
       <c r="J7">
-        <v>0.1422592077341274</v>
+        <v>0.136837075777874</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>4.93175801409537</v>
+        <v>5.056112666666666</v>
       </c>
       <c r="N7">
-        <v>4.93175801409537</v>
+        <v>15.168338</v>
       </c>
       <c r="O7">
-        <v>0.688327610277805</v>
+        <v>0.6800402240567835</v>
       </c>
       <c r="P7">
-        <v>0.688327610277805</v>
+        <v>0.6800402240567835</v>
       </c>
       <c r="Q7">
-        <v>8.042727342523978</v>
+        <v>8.250795545278445</v>
       </c>
       <c r="R7">
-        <v>8.042727342523978</v>
+        <v>74.25715990750601</v>
       </c>
       <c r="S7">
-        <v>0.09792094049964574</v>
+        <v>0.0930547156712605</v>
       </c>
       <c r="T7">
-        <v>0.09792094049964574</v>
+        <v>0.0930547156712605</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,52 +906,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>3.25555816618044</v>
+        <v>3.673383</v>
       </c>
       <c r="H8">
-        <v>3.25555816618044</v>
+        <v>11.020149</v>
       </c>
       <c r="I8">
-        <v>0.283990791403611</v>
+        <v>0.3080285091904039</v>
       </c>
       <c r="J8">
-        <v>0.283990791403611</v>
+        <v>0.3080285091904039</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.23308317555986</v>
+        <v>2.378907333333333</v>
       </c>
       <c r="N8">
-        <v>2.23308317555986</v>
+        <v>7.136722</v>
       </c>
       <c r="O8">
-        <v>0.311672389722195</v>
+        <v>0.3199597759432165</v>
       </c>
       <c r="P8">
-        <v>0.311672389722195</v>
+        <v>0.3199597759432165</v>
       </c>
       <c r="Q8">
-        <v>7.269932167954051</v>
+        <v>8.738637756842</v>
       </c>
       <c r="R8">
-        <v>7.269932167954051</v>
+        <v>78.64773981157799</v>
       </c>
       <c r="S8">
-        <v>0.08851208861586084</v>
+        <v>0.09855673278468462</v>
       </c>
       <c r="T8">
-        <v>0.08851208861586084</v>
+        <v>0.09855673278468462</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,52 +968,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>3.25555816618044</v>
+        <v>3.673383</v>
       </c>
       <c r="H9">
-        <v>3.25555816618044</v>
+        <v>11.020149</v>
       </c>
       <c r="I9">
-        <v>0.283990791403611</v>
+        <v>0.3080285091904039</v>
       </c>
       <c r="J9">
-        <v>0.283990791403611</v>
+        <v>0.3080285091904039</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>4.93175801409537</v>
+        <v>5.056112666666666</v>
       </c>
       <c r="N9">
-        <v>4.93175801409537</v>
+        <v>15.168338</v>
       </c>
       <c r="O9">
-        <v>0.688327610277805</v>
+        <v>0.6800402240567835</v>
       </c>
       <c r="P9">
-        <v>0.688327610277805</v>
+        <v>0.6800402240567835</v>
       </c>
       <c r="Q9">
-        <v>16.05562507641401</v>
+        <v>18.573038315818</v>
       </c>
       <c r="R9">
-        <v>16.05562507641401</v>
+        <v>167.157344842362</v>
       </c>
       <c r="S9">
-        <v>0.1954787027877501</v>
+        <v>0.2094717764057193</v>
       </c>
       <c r="T9">
-        <v>0.1954787027877501</v>
+        <v>0.2094717764057193</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,52 +1030,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.126146838136201</v>
+        <v>0.129675</v>
       </c>
       <c r="H10">
-        <v>0.126146838136201</v>
+        <v>0.389025</v>
       </c>
       <c r="I10">
-        <v>0.01100411621193481</v>
+        <v>0.01087379043493848</v>
       </c>
       <c r="J10">
-        <v>0.01100411621193481</v>
+        <v>0.01087379043493848</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.23308317555986</v>
+        <v>2.378907333333333</v>
       </c>
       <c r="N10">
-        <v>2.23308317555986</v>
+        <v>7.136722</v>
       </c>
       <c r="O10">
-        <v>0.311672389722195</v>
+        <v>0.3199597759432165</v>
       </c>
       <c r="P10">
-        <v>0.311672389722195</v>
+        <v>0.3199597759432165</v>
       </c>
       <c r="Q10">
-        <v>0.2816963818920234</v>
+        <v>0.30848480845</v>
       </c>
       <c r="R10">
-        <v>0.2816963818920234</v>
+        <v>2.77636327605</v>
       </c>
       <c r="S10">
-        <v>0.00342967919655447</v>
+        <v>0.003479175551216407</v>
       </c>
       <c r="T10">
-        <v>0.00342967919655447</v>
+        <v>0.003479175551216406</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,52 +1092,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.126146838136201</v>
+        <v>0.129675</v>
       </c>
       <c r="H11">
-        <v>0.126146838136201</v>
+        <v>0.389025</v>
       </c>
       <c r="I11">
-        <v>0.01100411621193481</v>
+        <v>0.01087379043493848</v>
       </c>
       <c r="J11">
-        <v>0.01100411621193481</v>
+        <v>0.01087379043493848</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>4.93175801409537</v>
+        <v>5.056112666666666</v>
       </c>
       <c r="N11">
-        <v>4.93175801409537</v>
+        <v>15.168338</v>
       </c>
       <c r="O11">
-        <v>0.688327610277805</v>
+        <v>0.6800402240567835</v>
       </c>
       <c r="P11">
-        <v>0.688327610277805</v>
+        <v>0.6800402240567835</v>
       </c>
       <c r="Q11">
-        <v>0.6221256799310008</v>
+        <v>0.65565141005</v>
       </c>
       <c r="R11">
-        <v>0.6221256799310008</v>
+        <v>5.90086269045</v>
       </c>
       <c r="S11">
-        <v>0.007574437015380339</v>
+        <v>0.007394614883722075</v>
       </c>
       <c r="T11">
-        <v>0.007574437015380339</v>
+        <v>0.007394614883722075</v>
       </c>
     </row>
   </sheetData>
